--- a/BalanceSheet/PH_bal.xlsx
+++ b/BalanceSheet/PH_bal.xlsx
@@ -507,16 +507,16 @@
         <v>1898000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-44182000.0</v>
+        <v>1871000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>39918000.0</v>
+        <v>1796000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>209183000.0</v>
+        <v>1815000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-33743000.0</v>
+        <v>2011000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2014260000.0</v>
@@ -2078,16 +2078,16 @@
         <v>1551000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>55001000.0</v>
+        <v>1343000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>138900000.0</v>
+        <v>1265000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-316890000.0</v>
+        <v>1112000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>124138000.0</v>
+        <v>1422000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1311733000.0</v>
@@ -3427,16 +3427,16 @@
         <v>291000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-14592000.0</v>
+        <v>286000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>11558000.0</v>
+        <v>284000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>3738000.0</v>
+        <v>256000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1346000.0</v>
+        <v>373000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>569582000.0</v>
@@ -5100,7 +5100,7 @@
         <v>8481000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>8808000000.0</v>
+        <v>8694745000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3457417000.0</v>
@@ -5227,7 +5227,7 @@
         <v>9271000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>9901000000.0</v>
+        <v>9788220000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>7366912000.0</v>
